--- a/adg-api/src/main/resources/mb/danh-sach-hoa-don-cam-hang.xlsx
+++ b/adg-api/src/main/resources/mb/danh-sach-hoa-don-cam-hang.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luan.phm/engineering/Projects/ADongGroup/adg-services-v2/adg-api/src/main/resources/MB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luan.phm/engineering/Projects/ADongGroup/adg-services-v2/adg-api/src/main/resources/mb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677E5F45-6B28-0E42-ADC1-48F94B4E2BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487DD67E-D801-BC43-83DD-9B43E38F7B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26620" yWindow="6420" windowWidth="27640" windowHeight="16940" xr2:uid="{670E1FA0-8BC1-2C4C-8FBB-7ACD95B5E03A}"/>
+    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{670E1FA0-8BC1-2C4C-8FBB-7ACD95B5E03A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HSV</t>
   </si>
   <si>
-    <t xml:space="preserve">SỐ HÓA ĐƠN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGÀY HÓA ĐƠN </t>
-  </si>
-  <si>
     <t>ĐƠN GIÁ</t>
   </si>
   <si>
@@ -66,19 +60,27 @@
   </si>
   <si>
     <t>DANH SÁCH HOÁ ĐƠN CẦM HÀNG</t>
+  </si>
+  <si>
+    <t>SỐ HÓA ĐƠN</t>
+  </si>
+  <si>
+    <t>NGÀY HÓA ĐƠN</t>
+  </si>
+  <si>
+    <t>TỔNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="dd\-mm\-yy"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -131,12 +133,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Microsoft Sans Serif"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,42 +187,55 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -532,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5B761C-DDC7-8E40-AB8F-F0096ABFD664}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="93" workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,86 +564,104 @@
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:10" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>